--- a/Images/Mathematics/Numbers/For Presentation.xlsx
+++ b/Images/Mathematics/Numbers/For Presentation.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Images\Mathematics\Number\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Images\Mathematics\Numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FBEC35-9E20-4815-B4ED-4D19647C236C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE675976-C11E-4263-9B1B-0F3EE5ED8AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -59,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,8 +73,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -173,11 +186,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +248,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -221,6 +286,91 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C59F4B85-A03F-4923-BE0B-263B93A304F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3369823080" y="544830"/>
+          <a:ext cx="636270" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="1" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="2800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G4" sqref="B4:G6"/>
+    <sheetView rightToLeft="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -622,4 +772,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C067A7-E1AA-4EBA-A546-E306D9E8DD22}">
+  <dimension ref="C2:M6"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M3" sqref="J3:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="13">
+        <v>3</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="J3" s="13">
+        <v>3</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="16"/>
+    </row>
+    <row r="4" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10">
+        <v>3</v>
+      </c>
+      <c r="J4" s="15">
+        <v>3</v>
+      </c>
+      <c r="K4" s="15">
+        <v>2</v>
+      </c>
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="11"/>
+      <c r="J5" s="15">
+        <v>6</v>
+      </c>
+      <c r="K5" s="15">
+        <v>5</v>
+      </c>
+      <c r="L5" s="15">
+        <v>4</v>
+      </c>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12"/>
+      <c r="J6" s="15">
+        <v>9</v>
+      </c>
+      <c r="K6" s="15">
+        <v>8</v>
+      </c>
+      <c r="L6" s="15">
+        <v>7</v>
+      </c>
+      <c r="M6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M4:M6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J4:L6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Images/Mathematics/Numbers/For Presentation.xlsx
+++ b/Images/Mathematics/Numbers/For Presentation.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Images\Mathematics\Numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE675976-C11E-4263-9B1B-0F3EE5ED8AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C32D2A-B0E0-4E5C-BC9A-65A4BB0336FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>i</t>
   </si>
@@ -31,12 +32,39 @@
   <si>
     <t>i^2</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>lcm</t>
+  </si>
+  <si>
+    <t>Multiples(b)</t>
+  </si>
+  <si>
+    <t>Multiples(a)</t>
+  </si>
+  <si>
+    <t>Common_Multiples(a,b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Multiples(b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Multiples(a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Common_Multiples(a,b)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,8 +87,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,8 +166,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A1E43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF172849"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -217,11 +358,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,6 +437,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -265,10 +458,220 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -277,6 +680,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FF800000"/>
+      <color rgb="FF172849"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF660066"/>
+      <color rgb="FF4A1E43"/>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -370,6 +784,413 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180474</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180474</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88232</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C71C0F8-C9D2-479E-A023-84E1A859C7D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3217176032" y="1905000"/>
+          <a:ext cx="393031" cy="4011"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>176463</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>192505</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F21FCA-DB1C-4C87-ACEF-0FBAC949226E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3216574453" y="1724527"/>
+          <a:ext cx="998621" cy="8020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180474</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>196515</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>88231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC0DB43-8594-42F2-B204-BA7397BF7813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3217356506" y="1540042"/>
+          <a:ext cx="212557" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6C4024-9D71-4D65-B4A3-0B0A4F4BF24D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3218262885" y="2658980"/>
+          <a:ext cx="393031" cy="4011"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68179</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84221</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>136357</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21EAD632-7A4E-463E-AF57-D520831ABE04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3218058348" y="2502569"/>
+          <a:ext cx="998621" cy="8020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8021</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>24063</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E929B444-A575-4322-A585-DF4140043FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3218118506" y="2265947"/>
+          <a:ext cx="212557" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4013</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="882935" cy="168443"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B65272-5C73-48D6-AF7E-B3EEF3E94371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3216076526" y="2197767"/>
+          <a:ext cx="882935" cy="168443"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Multiples(b)</a:t>
+          </a:r>
+          <a:endParaRPr lang="he-IL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -778,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C067A7-E1AA-4EBA-A546-E306D9E8DD22}">
   <dimension ref="C2:M6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="M3" sqref="J3:M6"/>
     </sheetView>
   </sheetViews>
@@ -789,69 +1610,69 @@
   <sheetData>
     <row r="2" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>3</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="10"/>
-      <c r="J3" s="13">
+      <c r="D3" s="16"/>
+      <c r="E3" s="12"/>
+      <c r="J3" s="15">
         <v>3</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="10">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12">
         <v>3</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="10">
         <v>3</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="10">
         <v>2</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="10">
         <v>1</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="11"/>
-      <c r="J5" s="15">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="13"/>
+      <c r="J5" s="10">
         <v>6</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="10">
         <v>5</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="10">
         <v>4</v>
       </c>
-      <c r="M5" s="11"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="3:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="12"/>
-      <c r="J6" s="15">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14"/>
+      <c r="J6" s="10">
         <v>9</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="10">
         <v>8</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="10">
         <v>7</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -875,4 +1696,709 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC95BDC3-1407-432B-A8A8-E1EACAB013DC}">
+  <dimension ref="B3:AE26"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A14" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE21:AE22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.69921875" style="17"/>
+    <col min="3" max="3" width="1" style="17" customWidth="1"/>
+    <col min="4" max="29" width="2.69921875" style="17"/>
+    <col min="30" max="30" width="1" style="17" customWidth="1"/>
+    <col min="31" max="16384" width="2.69921875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="53"/>
+    </row>
+    <row r="5" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="55"/>
+    </row>
+    <row r="6" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="32"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="41"/>
+    </row>
+    <row r="8" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="44"/>
+    </row>
+    <row r="10" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="44"/>
+    </row>
+    <row r="11" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="41"/>
+    </row>
+    <row r="12" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="44"/>
+    </row>
+    <row r="14" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="44"/>
+    </row>
+    <row r="15" spans="4:30" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="41"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+    </row>
+    <row r="18" spans="2:31" ht="4.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="77"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="77"/>
+    </row>
+    <row r="19" spans="2:31" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="77"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="77"/>
+    </row>
+    <row r="20" spans="2:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="77"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="87"/>
+      <c r="AE20" s="77"/>
+    </row>
+    <row r="21" spans="2:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="77"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="77"/>
+    </row>
+    <row r="22" spans="2:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="77"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="87"/>
+      <c r="AE22" s="77"/>
+    </row>
+    <row r="23" spans="2:31" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="77"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="39"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="82"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="83"/>
+      <c r="AD23" s="87"/>
+      <c r="AE23" s="77"/>
+    </row>
+    <row r="24" spans="2:31" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="77"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="84">
+        <v>25</v>
+      </c>
+      <c r="E24" s="85">
+        <v>24</v>
+      </c>
+      <c r="F24" s="85">
+        <v>23</v>
+      </c>
+      <c r="G24" s="85">
+        <v>22</v>
+      </c>
+      <c r="H24" s="85">
+        <v>21</v>
+      </c>
+      <c r="I24" s="85">
+        <v>20</v>
+      </c>
+      <c r="J24" s="85">
+        <v>19</v>
+      </c>
+      <c r="K24" s="85">
+        <v>18</v>
+      </c>
+      <c r="L24" s="85">
+        <v>17</v>
+      </c>
+      <c r="M24" s="85">
+        <v>16</v>
+      </c>
+      <c r="N24" s="85">
+        <v>15</v>
+      </c>
+      <c r="O24" s="85">
+        <v>14</v>
+      </c>
+      <c r="P24" s="85">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="85">
+        <v>12</v>
+      </c>
+      <c r="R24" s="85">
+        <v>11</v>
+      </c>
+      <c r="S24" s="85">
+        <v>10</v>
+      </c>
+      <c r="T24" s="85">
+        <v>9</v>
+      </c>
+      <c r="U24" s="85">
+        <v>8</v>
+      </c>
+      <c r="V24" s="85">
+        <v>7</v>
+      </c>
+      <c r="W24" s="85">
+        <v>6</v>
+      </c>
+      <c r="X24" s="85">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="85">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="85">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="85">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="85">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="86">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="87"/>
+      <c r="AE24" s="77"/>
+    </row>
+    <row r="25" spans="2:31" ht="4.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="77"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="87"/>
+      <c r="AC25" s="87"/>
+      <c r="AD25" s="87"/>
+      <c r="AE25" s="77"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="77"/>
+      <c r="AD26" s="77"/>
+      <c r="AE26" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="F21:P21"/>
+    <mergeCell ref="D19:Y19"/>
+    <mergeCell ref="D23:Y23"/>
+    <mergeCell ref="C18:AD18"/>
+    <mergeCell ref="AD19:AD25"/>
+    <mergeCell ref="C25:AC25"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="R5:AC5"/>
+    <mergeCell ref="AA6:AC6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>